--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,67 +66,64 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + 1.3361855683301653y_1 - 0.5389628631323411y_2</t>
-  </si>
-  <si>
-    <t>32.31131236629563</t>
+    <t>4.769263106946031 - 2x_1 + 1.005446371583506y_1 - 0.9974610568430532y_2</t>
+  </si>
+  <si>
+    <t>-2.2692631069460307</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4913961945540344</t>
-  </si>
-  <si>
-    <t>0.1506469314262201</t>
-  </si>
-  <si>
-    <t>0.4296699211448879</t>
-  </si>
-  <si>
-    <t>-2 + x_1 - 3x_2 - 0.00748967074829618y_1 + 0.9897288382275685y_2</t>
-  </si>
-  <si>
-    <t>-0.06145505736502366</t>
-  </si>
-  <si>
-    <t>0.8882090831603455</t>
+    <t>0.73</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.9713679732373599</t>
-  </si>
-  <si>
-    <t>-0.5759991579683006y_1 + 0.5814649784365273y_2</t>
-  </si>
-  <si>
-    <t>-57.51895618214894</t>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>-215.56767068718835 + x_1 - 3x_2 + 2.0418391685469106y_1 + 1.9518472078305775y_2</t>
+  </si>
+  <si>
+    <t>213.56767068718835</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>-127.51176888460301 + 1.1801149323347633y_1 + 1.0163074266860002y_2</t>
+  </si>
+  <si>
+    <t>127.51176888460301</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.41356181709168294</t>
-  </si>
-  <si>
-    <t>0.7374532002528387</t>
-  </si>
-  <si>
-    <t>0.47606101920412214y_1 - 0.34714089495770184y_2</t>
-  </si>
-  <si>
-    <t>47.607544090354736</t>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>8.299999999999999</t>
+  </si>
+  <si>
+    <t>-37.573309320877854 + 0.38295031399886403y_1 - 0.821479481473035y_2</t>
+  </si>
+  <si>
+    <t>37.23330932087785</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.07636940678826719</t>
-  </si>
-  <si>
-    <t>0.45863418446581183</t>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
   </si>
   <si>
     <t>x_1</t>
@@ -141,40 +138,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.01715930759299</t>
-  </si>
-  <si>
-    <t>16.611275692327354</t>
-  </si>
-  <si>
-    <t>100.37656758184467</t>
-  </si>
-  <si>
-    <t>0.5122616766064048</t>
+    <t>53.35</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>104.95</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.551910650874067</t>
-  </si>
-  <si>
-    <t>-1.828202612867802</t>
+    <t>1.0040030230502102</t>
+  </si>
+  <si>
+    <t>-2.241912383823589</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.3012938628524404</t>
+    <t>2.0</t>
   </si>
   <si>
     <t>-1.0</t>
   </si>
   <si>
-    <t>-0.9196301129835851</t>
-  </si>
-  <si>
-    <t>0.24040378273723467</t>
+    <t>-1.151015533798069</t>
+  </si>
+  <si>
+    <t>1.3965151185041595</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -645,50 +642,50 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -706,30 +703,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -747,17 +744,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -775,27 +772,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -813,17 +810,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.7196375721095871</v>
+        <v>2.4053652329170574</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.9868943734728055</v>
+        <v>1.1213126949632448</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,64 +66,64 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>4.769263106946031 - 2x_1 + 1.005446371583506y_1 - 0.9974610568430532y_2</t>
-  </si>
-  <si>
-    <t>-2.2692631069460307</t>
+    <t>-129.57644235431002 - 2x_1 + 2.2049840007757195y_1 + 1.5781053039852613y_2</t>
+  </si>
+  <si>
+    <t>132.07644235431002</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.73</t>
+    <t>0.77</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>-215.56767068718835 + x_1 - 3x_2 + 2.0418391685469106y_1 + 1.9518472078305775y_2</t>
-  </si>
-  <si>
-    <t>213.56767068718835</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>-127.51176888460301 + 1.1801149323347633y_1 + 1.0163074266860002y_2</t>
-  </si>
-  <si>
-    <t>127.51176888460301</t>
+    <t>7.199999999999999</t>
+  </si>
+  <si>
+    <t>48.35634151071462 + x_1 - 3x_2 - 0.38359352273829145y_1 + 0.17928827693202753y_2</t>
+  </si>
+  <si>
+    <t>-50.35634151071462</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>45.06990772106362 - 0.4537824411074035y_1 + 1.1686515213516018y_2</t>
+  </si>
+  <si>
+    <t>-45.06990772106362</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>8.299999999999999</t>
-  </si>
-  <si>
-    <t>-37.573309320877854 + 0.38295031399886403y_1 - 0.821479481473035y_2</t>
-  </si>
-  <si>
-    <t>37.23330932087785</t>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>-39.81634151071463 + 0.38359352273829145y_1 - 0.17928827693202753y_2</t>
+  </si>
+  <si>
+    <t>39.75634151071463</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>6.7</t>
   </si>
   <si>
     <t>x_1</t>
@@ -138,40 +138,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>53.35</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>104.95</t>
-  </si>
-  <si>
-    <t>3.5999999999999996</t>
+    <t>52.150000000000006</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>104.6</t>
+  </si>
+  <si>
+    <t>2.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.0040030230502102</t>
-  </si>
-  <si>
-    <t>-2.241912383823589</t>
+    <t>2.419166286163839</t>
+  </si>
+  <si>
+    <t>-2.662016317975043</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>-1.151015533798069</t>
-  </si>
-  <si>
-    <t>1.3965151185041595</t>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>-0.7</t>
+  </si>
+  <si>
+    <t>0.5531640346757642</t>
+  </si>
+  <si>
+    <t>-8.049044390926271</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -662,10 +662,10 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -815,12 +815,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.4053652329170574</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.1213126949632448</v>
+        <v>2.7600000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,64 +66,64 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-129.57644235431002 - 2x_1 + 2.2049840007757195y_1 + 1.5781053039852613y_2</t>
-  </si>
-  <si>
-    <t>132.07644235431002</t>
+    <t>-266.230831769856 - 2x_1 + 3.6141338336460276y_1 - 0.1682301438399002y_2</t>
+  </si>
+  <si>
+    <t>268.730831769856</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.77</t>
+    <t>0.92</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>7.199999999999999</t>
-  </si>
-  <si>
-    <t>48.35634151071462 + x_1 - 3x_2 - 0.38359352273829145y_1 + 0.17928827693202753y_2</t>
-  </si>
-  <si>
-    <t>-50.35634151071462</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>45.06990772106362 - 0.4537824411074035y_1 + 1.1686515213516018y_2</t>
-  </si>
-  <si>
-    <t>-45.06990772106362</t>
+    <t>4.699999999999999</t>
+  </si>
+  <si>
+    <t>32.09709193245777 + x_1 - 3x_2 - 0.28893058161350843y_1 + 0.9080675422138836y_2</t>
+  </si>
+  <si>
+    <t>-34.09709193245777</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.337711069418402 - 0.09193245778611647y_1 + 0.2889305816135084y_2</t>
+  </si>
+  <si>
+    <t>-9.337711069418402</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>-39.81634151071463 + 0.38359352273829145y_1 - 0.17928827693202753y_2</t>
-  </si>
-  <si>
-    <t>39.75634151071463</t>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>-50.92215759849905 + 0.49530956848030006y_1 - 0.8424015009380863y_2</t>
+  </si>
+  <si>
+    <t>50.45215759849905</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>6.7</t>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.3</t>
   </si>
   <si>
     <t>x_1</t>
@@ -138,40 +138,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.150000000000006</t>
-  </si>
-  <si>
-    <t>20.25</t>
-  </si>
-  <si>
-    <t>104.6</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>51.550000000000004</t>
+  </si>
+  <si>
+    <t>18.099999999999998</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>2.419166286163839</t>
-  </si>
-  <si>
-    <t>-2.662016317975043</t>
+    <t>0.4525766103814899</t>
+  </si>
+  <si>
+    <t>-0.6819074421513442</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>-0.7</t>
-  </si>
-  <si>
-    <t>0.5531640346757642</t>
-  </si>
-  <si>
-    <t>-8.049044390926271</t>
+    <t>-6.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>1.8114446529080674</t>
+  </si>
+  <si>
+    <t>-7.264540337711069</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -662,10 +662,10 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -682,10 +682,10 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -815,12 +815,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>2.7600000000000002</v>
+        <v>0.42000000000000004</v>
       </c>
     </row>
   </sheetData>
